--- a/APF/APF訊息提示/APF訊息提示1028.xlsx
+++ b/APF/APF訊息提示/APF訊息提示1028.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="UI訊息" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="139">
   <si>
     <t>輸入日期內容錯誤-請輸入正確的日期</t>
   </si>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查詢資料失敗-無符合條件之資料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>執行TreeView發生連線異常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +279,6 @@
   </si>
   <si>
     <t>$A欄位必需填寫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顯示文字($A代表欄位名稱)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -314,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$A欄位數值不可有小數點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$A欄位必須為數字</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -356,14 +344,6 @@
   </si>
   <si>
     <t>帳號或密碼不正確</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不允許重覆登入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APF_NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -646,6 +626,58 @@
   <si>
     <t>API執行時錯誤，請洽系統管理員</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允許重覆登入，是否清除前次登入並再次登入(即後蓋前方式再次登入)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm視窗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端/後端檢核</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位輸入有誤，請確認錯誤訊息</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前查無資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示文字($A代表欄位名稱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$A欄位數值不可有小數點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$A已存在，請重新輸入</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>APF_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$A已存在，請重新輸入</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -729,7 +761,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,12 +771,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,7 +839,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -871,13 +897,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -905,14 +924,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,11 +1243,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1235,28 +1260,29 @@
     <col min="6" max="6" width="12.875" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5" customWidth="1"/>
-    <col min="21" max="21" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="56.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="56.875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>28</v>
@@ -1265,76 +1291,79 @@
         <v>24</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="E1" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Z1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1348,69 +1377,70 @@
         <v>56</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I2" s="10"/>
       <c r="J2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2" s="14"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="14"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1420,71 +1450,72 @@
         <v>57</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I3" s="10"/>
       <c r="J3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1493,146 +1524,148 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z4" s="14"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA4" s="14"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I5" s="6"/>
       <c r="J5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1642,76 +1675,77 @@
         <v>18</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I6" s="6"/>
       <c r="J6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z6" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA6" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="3" t="s">
-        <v>87</v>
+      <c r="D7" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="6" t="s">
@@ -1722,7 +1756,9 @@
       <c r="I7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -1738,9 +1774,10 @@
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
-      <c r="Z7" s="14"/>
-    </row>
-    <row r="8" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="14"/>
+    </row>
+    <row r="8" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1752,147 +1789,149 @@
         <v>26</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y8" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z8" s="14"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA8" s="14"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA9" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1900,29 +1939,27 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I10" s="10"/>
       <c r="J10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>17</v>
@@ -1936,39 +1973,42 @@
       <c r="O10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>17</v>
+      <c r="P10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y10" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z10" s="14"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA10" s="14"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1987,67 +2027,68 @@
         <v>17</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I11" s="10"/>
       <c r="J11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y11" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z11" s="14"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+        <v>63</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA11" s="14"/>
+    </row>
+    <row r="12" spans="1:27" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
         <v>11</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="22" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -2056,67 +2097,68 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I12" s="6"/>
       <c r="J12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X12" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z12" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA12" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2135,16 +2177,14 @@
         <v>17</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I13" s="10"/>
       <c r="J13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>17</v>
@@ -2159,38 +2199,41 @@
         <v>17</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y13" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z13" s="14"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA13" s="14"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2199,24 +2242,22 @@
         <v>13</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>17</v>
@@ -2231,40 +2272,43 @@
         <v>17</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y14" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA14" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2273,26 +2317,24 @@
         <v>10</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>17</v>
@@ -2307,114 +2349,118 @@
         <v>17</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA15" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X16" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y16" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA16" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2425,72 +2471,73 @@
         <v>12</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I17" s="10"/>
       <c r="J17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y17" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z17" s="14"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA17" s="14"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2502,67 +2549,68 @@
         <v>4</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z18" s="14"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA18" s="14"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2572,69 +2620,70 @@
         <v>5</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z19" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA19" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2643,148 +2692,150 @@
         <v>10</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y20" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z20" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA20" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z21" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA21" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2798,71 +2849,72 @@
         <v>0</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X22" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z22" s="14"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA22" s="14"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2872,71 +2924,72 @@
         <v>7</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I23" s="6"/>
       <c r="J23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z23" s="14"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA23" s="14"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2946,71 +2999,72 @@
         <v>8</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N24" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X24" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z24" s="14"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA24" s="14"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3021,148 +3075,150 @@
         <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z25" s="14"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA25" s="14"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="4"/>
       <c r="D26" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z26" s="14"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA26" s="14"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3172,219 +3228,222 @@
         <v>9</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I27" s="6"/>
       <c r="J27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X27" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z27" s="14"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA27" s="14"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="4"/>
       <c r="D28" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I28" s="6"/>
       <c r="J28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X28" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z28" s="14"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA28" s="14"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I29" s="6"/>
       <c r="J29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X29" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z29" s="14"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA29" s="14"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3395,370 +3454,375 @@
         <v>10</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X30" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z30" s="14"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA30" s="14"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="4"/>
       <c r="D31" s="3" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I31" s="6"/>
       <c r="J31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X31" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z31" s="14"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA31" s="14"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="4"/>
       <c r="D32" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I32" s="6"/>
       <c r="J32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X32" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y32" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z32" s="14"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA32" s="14"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I33" s="6"/>
       <c r="J33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X33" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y33" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z33" s="14"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA33" s="14"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
       <c r="D34" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I34" s="6"/>
       <c r="J34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X34" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y34" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z34" s="14"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA34" s="14"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3769,72 +3833,73 @@
         <v>10</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H35" s="6"/>
       <c r="I35" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="J35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X35" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y35" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z35" s="14"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA35" s="14"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3845,97 +3910,98 @@
         <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>64</v>
-      </c>
+      <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="N36" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="R36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X36" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y36" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z36" s="14"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="Z36" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA36" s="14"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="I37" s="10"/>
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
@@ -3952,32 +4018,33 @@
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
-      <c r="Z37" s="14"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="14"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I38" s="11"/>
+        <v>63</v>
+      </c>
+      <c r="I38" s="10"/>
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
@@ -3994,22 +4061,23 @@
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
-      <c r="Z38" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>17</v>
@@ -4034,20 +4102,21 @@
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
-      <c r="Z39" s="14"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="14"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -4055,7 +4124,7 @@
       <c r="H40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="4"/>
+      <c r="I40" s="6"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
@@ -4072,20 +4141,21 @@
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
-      <c r="Z40" s="14"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="14"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -4093,7 +4163,7 @@
       <c r="H41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I41" s="4"/>
+      <c r="I41" s="6"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
@@ -4110,28 +4180,29 @@
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
-      <c r="Z41" s="14"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="14"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>41</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
       <c r="H42" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I42" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="I42" s="26"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -4148,28 +4219,29 @@
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
-      <c r="Z42" s="14"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="14"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="H43" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I43" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="I43" s="26"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -4186,28 +4258,29 @@
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
-      <c r="Z43" s="14"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="14"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>43</v>
       </c>
       <c r="B44" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>94</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>99</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
-      <c r="H44" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I44" s="4"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26" t="s">
+        <v>92</v>
+      </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
@@ -4224,28 +4297,29 @@
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
-      <c r="Z44" s="14"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="14"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
       <c r="G45" s="25"/>
-      <c r="H45" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" s="4"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26" t="s">
+        <v>92</v>
+      </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
@@ -4262,28 +4336,29 @@
       <c r="W45" s="4"/>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
-      <c r="Z45" s="14"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="14"/>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>45</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="I46" s="26"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
@@ -4300,28 +4375,29 @@
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
-      <c r="Z46" s="14"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="14"/>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
-      <c r="H47" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="I47" s="4"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26" t="s">
+        <v>92</v>
+      </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -4338,30 +4414,167 @@
       <c r="W47" s="4"/>
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
-      <c r="Z47" s="14"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="29">
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="14"/>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28" t="s">
-        <v>97</v>
-      </c>
+      <c r="B48" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I48" s="26"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="14"/>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="I49" s="26"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="14"/>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="14"/>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4371,7 +4584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
@@ -4390,7 +4603,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>28</v>
@@ -4399,7 +4612,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>49</v>
@@ -4415,17 +4628,17 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>129</v>
+        <v>105</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
@@ -4439,15 +4652,15 @@
       <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>17</v>
@@ -4461,7 +4674,7 @@
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
+      <c r="A4" s="34">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -4470,7 +4683,7 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="34" t="b">
+      <c r="D4" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="6"/>
@@ -4479,7 +4692,7 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
+      <c r="A5" s="34">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
@@ -4487,7 +4700,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -4497,7 +4710,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+      <c r="A6" s="34">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -4506,7 +4719,7 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="30" t="b">
+      <c r="D6" s="27" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="6"/>
@@ -4515,7 +4728,7 @@
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+      <c r="A7" s="34">
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
@@ -4523,7 +4736,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -4533,7 +4746,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+      <c r="A8" s="34">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -4542,7 +4755,7 @@
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="30" t="b">
+      <c r="D8" s="27" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="6"/>
@@ -4551,7 +4764,7 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="34">
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
@@ -4569,17 +4782,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="35">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>125</v>
+      <c r="B10" s="32" t="s">
+        <v>120</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>130</v>
+      <c r="D10" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -4616,7 +4829,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>28</v>
@@ -4625,7 +4838,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E1" s="17" t="s">
         <v>47</v>
@@ -4634,48 +4847,48 @@
         <v>48</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="297" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>128</v>
+      <c r="C2" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>123</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>120</v>
+      <c r="H2" s="30" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="54" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="A3" s="34">
         <v>2</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>127</v>
+        <v>104</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>122</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -4685,7 +4898,7 @@
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="35">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -4694,8 +4907,8 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>114</v>
+      <c r="D4" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
@@ -4707,7 +4920,7 @@
       <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="35">
         <v>4</v>
       </c>
       <c r="B5" s="8"/>
@@ -4715,7 +4928,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>17</v>
@@ -4729,7 +4942,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="35">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -4739,7 +4952,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>17</v>
@@ -4751,7 +4964,7 @@
       <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="35">
         <v>6</v>
       </c>
       <c r="B7" s="8"/>
@@ -4759,7 +4972,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>17</v>
@@ -4773,7 +4986,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -4783,7 +4996,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>17</v>
@@ -4795,7 +5008,7 @@
       <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="A9" s="35">
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
@@ -4803,7 +5016,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>17</v>
@@ -4817,17 +5030,17 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="35">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>123</v>
+      <c r="B10" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>124</v>
+      <c r="D10" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>17</v>

--- a/APF/APF訊息提示/APF訊息提示1028.xlsx
+++ b/APF/APF訊息提示/APF訊息提示1028.xlsx
@@ -1246,8 +1246,8 @@
   <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/APF/APF訊息提示/APF訊息提示1028.xlsx
+++ b/APF/APF訊息提示/APF訊息提示1028.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="140">
   <si>
     <t>輸入日期內容錯誤-請輸入正確的日期</t>
   </si>
@@ -678,6 +678,10 @@
   <si>
     <t>$A已存在，請重新輸入</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>連線已逾時即將換頁，若您正在作業中，請自行記錄畫面中資訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -839,7 +843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -938,6 +942,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1243,11 +1253,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4573,6 +4583,45 @@
       <c r="Z51" s="4"/>
       <c r="AA51" s="14"/>
     </row>
+    <row r="52" spans="1:27" ht="27" x14ac:dyDescent="0.25">
+      <c r="A52" s="44">
+        <v>51</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
